--- a/thermometer_all.xlsx
+++ b/thermometer_all.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="216">
   <si>
     <t>Warning</t>
   </si>
@@ -423,6 +423,181 @@
 bird in hand, birmingham rd, henley-in-arden, b95 5qr</t>
   </si>
   <si>
+    <t>3.51</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>River
+3.07
+lake
+3.07</t>
+  </si>
+  <si>
+    <t>River
+3.07
+lake
+2.47</t>
+  </si>
+  <si>
+    <t>River
+3.07
+a
+lake
+0.00</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>2.80
+a</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>4.43</t>
+  </si>
+  <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>2.60
+a</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>1.69</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>1.20
+a</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.10
+a</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>1.30
+a</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>1.90</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>1.00
+a</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
     <t>110.80</t>
   </si>
   <si>
@@ -651,6 +826,12 @@
   <si>
     <t>Storage lake begins to fill
 the lake does not have an automated gauge just a gauge board</t>
+  </si>
+  <si>
+    <t>Mean water level</t>
+  </si>
+  <si>
+    <t>Station datum</t>
   </si>
   <si>
     <t>Consider issuing group flood warning message
@@ -659,12 +840,6 @@
 please consult the contingency plan on the toolbox for wootton wawen (titled “brc contingency plan – wootton wawen 2020”).
 toolbox file path…
 swwm – operational documents – duty officer procedures – fido and fodo – 04- contingency plans and operating instructions-swwm – 04-brcs – below required conditions assets assessments – contingency plans</t>
-  </si>
-  <si>
-    <t>Mean Water Level</t>
-  </si>
-  <si>
-    <t>STATION DATUM</t>
   </si>
   <si>
     <t>Bescot</t>
@@ -1037,13 +1212,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,13 +1241,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1082,20 +1254,20 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>3.51</v>
+      <c r="D2" t="s">
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="H2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1105,20 +1277,20 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>3.46</v>
+      <c r="D3" t="s">
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="H3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1128,20 +1300,20 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>3.44</v>
+      <c r="D4" t="s">
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
-      </c>
-      <c r="I4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="H4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1151,20 +1323,20 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>3.39</v>
+      <c r="D5" t="s">
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>191</v>
+      </c>
+      <c r="H5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1174,20 +1346,20 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>3.28</v>
+      <c r="D6" t="s">
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="H6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1197,20 +1369,20 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
-        <v>3.15</v>
+      <c r="D7" t="s">
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="H7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1220,14 +1392,17 @@
       <c r="C8" t="s">
         <v>61</v>
       </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
       <c r="G8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="H8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1237,14 +1412,17 @@
       <c r="C9" t="s">
         <v>62</v>
       </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
       <c r="G9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="H9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1254,17 +1432,20 @@
       <c r="C10" t="s">
         <v>63</v>
       </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>207</v>
+      </c>
+      <c r="H10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1274,65 +1455,65 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11">
-        <v>3.05</v>
+      <c r="D11" t="s">
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="H11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>64</v>
       </c>
-      <c r="D12">
-        <v>2.8</v>
+      <c r="D12" t="s">
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="D13">
-        <v>0.8100000000000001</v>
+        <v>139</v>
+      </c>
+      <c r="H12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="D13" t="s">
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>208</v>
       </c>
       <c r="H13" t="s">
-        <v>156</v>
-      </c>
-      <c r="I13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="D14">
-        <v>0</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="D14" t="s">
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>209</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1342,20 +1523,20 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>3.51</v>
+      <c r="D15" t="s">
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>188</v>
+      </c>
+      <c r="H15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1365,20 +1546,20 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
-        <v>3.46</v>
+      <c r="D16" t="s">
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="H16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1388,20 +1569,20 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17">
-        <v>3.44</v>
+      <c r="D17" t="s">
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>190</v>
+      </c>
+      <c r="H17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1411,20 +1592,20 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18">
-        <v>3.39</v>
+      <c r="D18" t="s">
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>191</v>
+      </c>
+      <c r="H18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1434,20 +1615,20 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19">
-        <v>3.28</v>
+      <c r="D19" t="s">
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="H19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1457,20 +1638,20 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20">
-        <v>3.15</v>
+      <c r="D20" t="s">
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="H20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1480,14 +1661,17 @@
       <c r="C21" t="s">
         <v>61</v>
       </c>
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
       <c r="G21" t="s">
-        <v>152</v>
-      </c>
-      <c r="I21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="H21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1497,14 +1681,17 @@
       <c r="C22" t="s">
         <v>62</v>
       </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
       <c r="G22" t="s">
-        <v>153</v>
-      </c>
-      <c r="I22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>206</v>
+      </c>
+      <c r="H22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1514,17 +1701,20 @@
       <c r="C23" t="s">
         <v>63</v>
       </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
-      </c>
-      <c r="I23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>207</v>
+      </c>
+      <c r="H23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1534,65 +1724,65 @@
       <c r="C24" t="s">
         <v>12</v>
       </c>
-      <c r="D24">
-        <v>3.05</v>
+      <c r="D24" t="s">
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="F24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="H24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="s">
         <v>64</v>
       </c>
-      <c r="D25">
-        <v>2.8</v>
+      <c r="D25" t="s">
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="D26">
-        <v>0.8100000000000001</v>
+        <v>139</v>
+      </c>
+      <c r="H25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="D26" t="s">
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>140</v>
+      </c>
+      <c r="G26" t="s">
+        <v>208</v>
       </c>
       <c r="H26" t="s">
-        <v>156</v>
-      </c>
-      <c r="I26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="D27">
-        <v>0</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="D27" t="s">
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>141</v>
+      </c>
+      <c r="G27" t="s">
+        <v>209</v>
       </c>
       <c r="H27" t="s">
-        <v>157</v>
-      </c>
-      <c r="I27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1602,20 +1792,20 @@
       <c r="C28" t="s">
         <v>12</v>
       </c>
-      <c r="D28">
-        <v>4.43</v>
+      <c r="D28" t="s">
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="H28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1625,20 +1815,20 @@
       <c r="C29" t="s">
         <v>12</v>
       </c>
-      <c r="D29">
-        <v>3.8</v>
+      <c r="D29" t="s">
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
-      </c>
-      <c r="I29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="H29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1648,20 +1838,20 @@
       <c r="C30" t="s">
         <v>12</v>
       </c>
-      <c r="D30">
-        <v>3.78</v>
+      <c r="D30" t="s">
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="F30" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="H30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1671,17 +1861,17 @@
       <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="D31">
-        <v>3.8</v>
+      <c r="D31" t="s">
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="H31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1691,34 +1881,34 @@
       <c r="C32" t="s">
         <v>66</v>
       </c>
-      <c r="D32">
-        <v>3.65</v>
+      <c r="D32" t="s">
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
-      </c>
-      <c r="I32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="H32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
       </c>
-      <c r="D33">
-        <v>3.6</v>
+      <c r="D33" t="s">
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="H33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1728,17 +1918,17 @@
       <c r="C34" t="s">
         <v>67</v>
       </c>
-      <c r="D34">
-        <v>3.35</v>
+      <c r="D34" t="s">
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="H34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1748,59 +1938,59 @@
       <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="D35">
-        <v>2.7</v>
+      <c r="D35" t="s">
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="H35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="B36" t="s">
         <v>43</v>
       </c>
-      <c r="D36">
-        <v>2.6</v>
+      <c r="D36" t="s">
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="D37">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="H36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="D37" t="s">
+        <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>150</v>
+      </c>
+      <c r="G37" t="s">
+        <v>208</v>
       </c>
       <c r="H37" t="s">
-        <v>156</v>
-      </c>
-      <c r="I37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="D38">
-        <v>0</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="D38" t="s">
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>151</v>
+      </c>
+      <c r="G38" t="s">
+        <v>209</v>
       </c>
       <c r="H38" t="s">
-        <v>157</v>
-      </c>
-      <c r="I38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1810,20 +2000,20 @@
       <c r="C39" t="s">
         <v>12</v>
       </c>
-      <c r="D39">
-        <v>4.43</v>
+      <c r="D39" t="s">
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="F39" t="s">
-        <v>142</v>
-      </c>
-      <c r="I39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="H39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -1833,20 +2023,20 @@
       <c r="C40" t="s">
         <v>12</v>
       </c>
-      <c r="D40">
-        <v>3.8</v>
+      <c r="D40" t="s">
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="F40" t="s">
-        <v>143</v>
-      </c>
-      <c r="I40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="H40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1856,20 +2046,20 @@
       <c r="C41" t="s">
         <v>12</v>
       </c>
-      <c r="D41">
-        <v>3.78</v>
+      <c r="D41" t="s">
+        <v>94</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="F41" t="s">
-        <v>144</v>
-      </c>
-      <c r="I41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="H41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1879,17 +2069,17 @@
       <c r="C42" t="s">
         <v>65</v>
       </c>
-      <c r="D42">
-        <v>3.8</v>
+      <c r="D42" t="s">
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
-      </c>
-      <c r="I42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>143</v>
+      </c>
+      <c r="H42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1899,34 +2089,34 @@
       <c r="C43" t="s">
         <v>66</v>
       </c>
-      <c r="D43">
-        <v>3.65</v>
+      <c r="D43" t="s">
+        <v>95</v>
       </c>
       <c r="E43" t="s">
-        <v>92</v>
-      </c>
-      <c r="I43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="H43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>15</v>
       </c>
       <c r="B44" t="s">
         <v>40</v>
       </c>
-      <c r="D44">
-        <v>3.6</v>
+      <c r="D44" t="s">
+        <v>96</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
-      </c>
-      <c r="I44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="H44" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1936,17 +2126,17 @@
       <c r="C45" t="s">
         <v>67</v>
       </c>
-      <c r="D45">
-        <v>3.35</v>
+      <c r="D45" t="s">
+        <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
-      </c>
-      <c r="I45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="H45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1956,59 +2146,59 @@
       <c r="C46" t="s">
         <v>68</v>
       </c>
-      <c r="D46">
-        <v>2.7</v>
+      <c r="D46" t="s">
+        <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
-      </c>
-      <c r="I46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="H46" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="B47" t="s">
         <v>43</v>
       </c>
-      <c r="D47">
-        <v>2.6</v>
+      <c r="D47" t="s">
+        <v>99</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
-      </c>
-      <c r="I47" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="D48">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="H47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="D48" t="s">
+        <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>150</v>
+      </c>
+      <c r="G48" t="s">
+        <v>208</v>
       </c>
       <c r="H48" t="s">
-        <v>156</v>
-      </c>
-      <c r="I48" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="D49">
-        <v>0</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="D49" t="s">
+        <v>91</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>151</v>
+      </c>
+      <c r="G49" t="s">
+        <v>209</v>
       </c>
       <c r="H49" t="s">
-        <v>157</v>
-      </c>
-      <c r="I49" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -2018,17 +2208,17 @@
       <c r="C50" t="s">
         <v>69</v>
       </c>
-      <c r="D50">
-        <v>2.2</v>
+      <c r="D50" t="s">
+        <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
-      </c>
-      <c r="I50" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="H50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2038,37 +2228,37 @@
       <c r="C51" t="s">
         <v>12</v>
       </c>
-      <c r="D51">
-        <v>1.96</v>
+      <c r="D51" t="s">
+        <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="F51" t="s">
-        <v>145</v>
-      </c>
-      <c r="I51" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>198</v>
+      </c>
+      <c r="H51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>19</v>
       </c>
       <c r="B52" t="s">
         <v>45</v>
       </c>
-      <c r="D52">
-        <v>1.7</v>
+      <c r="D52" t="s">
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
-      </c>
-      <c r="I52" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="H52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2078,20 +2268,20 @@
       <c r="C53" t="s">
         <v>12</v>
       </c>
-      <c r="D53">
-        <v>1.69</v>
+      <c r="D53" t="s">
+        <v>104</v>
       </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
-      </c>
-      <c r="I53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="H53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -2101,20 +2291,20 @@
       <c r="C54" t="s">
         <v>12</v>
       </c>
-      <c r="D54">
-        <v>1.52</v>
+      <c r="D54" t="s">
+        <v>105</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="F54" t="s">
-        <v>138</v>
-      </c>
-      <c r="I54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>191</v>
+      </c>
+      <c r="H54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2124,20 +2314,20 @@
       <c r="C55" t="s">
         <v>12</v>
       </c>
-      <c r="D55">
-        <v>1.44</v>
+      <c r="D55" t="s">
+        <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="F55" t="s">
-        <v>143</v>
-      </c>
-      <c r="I55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="H55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2147,20 +2337,20 @@
       <c r="C56" t="s">
         <v>12</v>
       </c>
-      <c r="D56">
-        <v>1.37</v>
+      <c r="D56" t="s">
+        <v>107</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="F56" t="s">
-        <v>147</v>
-      </c>
-      <c r="I56" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>200</v>
+      </c>
+      <c r="H56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2170,20 +2360,20 @@
       <c r="C57" t="s">
         <v>12</v>
       </c>
-      <c r="D57">
-        <v>1.3</v>
+      <c r="D57" t="s">
+        <v>108</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="F57" t="s">
-        <v>148</v>
-      </c>
-      <c r="I57" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="H57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2193,59 +2383,59 @@
       <c r="C58" t="s">
         <v>70</v>
       </c>
-      <c r="D58">
-        <v>1.3</v>
+      <c r="D58" t="s">
+        <v>108</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
-      </c>
-      <c r="I58" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="H58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="B59" t="s">
         <v>43</v>
       </c>
-      <c r="D59">
-        <v>1.2</v>
+      <c r="D59" t="s">
+        <v>109</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
-      </c>
-      <c r="I59" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="D60">
-        <v>0.15</v>
+      <c r="H59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="D60" t="s">
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>108</v>
+        <v>161</v>
+      </c>
+      <c r="G60" t="s">
+        <v>208</v>
       </c>
       <c r="H60" t="s">
-        <v>156</v>
-      </c>
-      <c r="I60" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="D61">
-        <v>0</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="D61" t="s">
+        <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>162</v>
+      </c>
+      <c r="G61" t="s">
+        <v>209</v>
       </c>
       <c r="H61" t="s">
-        <v>157</v>
-      </c>
-      <c r="I61" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -2255,17 +2445,17 @@
       <c r="C62" t="s">
         <v>69</v>
       </c>
-      <c r="D62">
-        <v>2.2</v>
+      <c r="D62" t="s">
+        <v>101</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
-      </c>
-      <c r="I62" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="H62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2275,37 +2465,37 @@
       <c r="C63" t="s">
         <v>12</v>
       </c>
-      <c r="D63">
-        <v>1.96</v>
+      <c r="D63" t="s">
+        <v>102</v>
       </c>
       <c r="E63" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="F63" t="s">
-        <v>145</v>
-      </c>
-      <c r="I63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>198</v>
+      </c>
+      <c r="H63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>19</v>
       </c>
       <c r="B64" t="s">
         <v>45</v>
       </c>
-      <c r="D64">
-        <v>1.7</v>
+      <c r="D64" t="s">
+        <v>103</v>
       </c>
       <c r="E64" t="s">
-        <v>101</v>
-      </c>
-      <c r="I64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>154</v>
+      </c>
+      <c r="H64" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -2315,20 +2505,20 @@
       <c r="C65" t="s">
         <v>12</v>
       </c>
-      <c r="D65">
-        <v>1.69</v>
+      <c r="D65" t="s">
+        <v>104</v>
       </c>
       <c r="E65" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="F65" t="s">
-        <v>146</v>
-      </c>
-      <c r="I65" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>199</v>
+      </c>
+      <c r="H65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -2338,20 +2528,20 @@
       <c r="C66" t="s">
         <v>12</v>
       </c>
-      <c r="D66">
-        <v>1.52</v>
+      <c r="D66" t="s">
+        <v>105</v>
       </c>
       <c r="E66" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="F66" t="s">
-        <v>138</v>
-      </c>
-      <c r="I66" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>191</v>
+      </c>
+      <c r="H66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -2361,20 +2551,20 @@
       <c r="C67" t="s">
         <v>12</v>
       </c>
-      <c r="D67">
-        <v>1.44</v>
+      <c r="D67" t="s">
+        <v>106</v>
       </c>
       <c r="E67" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="F67" t="s">
-        <v>143</v>
-      </c>
-      <c r="I67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="H67" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -2384,20 +2574,20 @@
       <c r="C68" t="s">
         <v>12</v>
       </c>
-      <c r="D68">
-        <v>1.37</v>
+      <c r="D68" t="s">
+        <v>107</v>
       </c>
       <c r="E68" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="F68" t="s">
-        <v>147</v>
-      </c>
-      <c r="I68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>200</v>
+      </c>
+      <c r="H68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -2407,20 +2597,20 @@
       <c r="C69" t="s">
         <v>12</v>
       </c>
-      <c r="D69">
-        <v>1.3</v>
+      <c r="D69" t="s">
+        <v>108</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="F69" t="s">
-        <v>148</v>
-      </c>
-      <c r="I69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="H69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -2430,59 +2620,59 @@
       <c r="C70" t="s">
         <v>70</v>
       </c>
-      <c r="D70">
-        <v>1.3</v>
+      <c r="D70" t="s">
+        <v>108</v>
       </c>
       <c r="E70" t="s">
-        <v>106</v>
-      </c>
-      <c r="I70" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="H70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="B71" t="s">
         <v>43</v>
       </c>
-      <c r="D71">
-        <v>1.2</v>
+      <c r="D71" t="s">
+        <v>109</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
-      </c>
-      <c r="I71" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="D72">
-        <v>0.15</v>
+      <c r="H71" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="D72" t="s">
+        <v>110</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>161</v>
+      </c>
+      <c r="G72" t="s">
+        <v>208</v>
       </c>
       <c r="H72" t="s">
-        <v>156</v>
-      </c>
-      <c r="I72" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="D73">
-        <v>0</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="D73" t="s">
+        <v>91</v>
       </c>
       <c r="E73" t="s">
-        <v>109</v>
+        <v>162</v>
+      </c>
+      <c r="G73" t="s">
+        <v>209</v>
       </c>
       <c r="H73" t="s">
-        <v>157</v>
-      </c>
-      <c r="I73" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -2492,17 +2682,17 @@
       <c r="C74" t="s">
         <v>71</v>
       </c>
-      <c r="D74">
-        <v>3.5</v>
+      <c r="D74" t="s">
+        <v>111</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
-      </c>
-      <c r="I74" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="H74" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -2512,20 +2702,20 @@
       <c r="C75" t="s">
         <v>12</v>
       </c>
-      <c r="D75">
-        <v>3.25</v>
+      <c r="D75" t="s">
+        <v>112</v>
       </c>
       <c r="E75" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="F75" t="s">
-        <v>149</v>
-      </c>
-      <c r="I75" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>202</v>
+      </c>
+      <c r="H75" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -2535,17 +2725,17 @@
       <c r="C76" t="s">
         <v>71</v>
       </c>
-      <c r="D76">
-        <v>3.1</v>
+      <c r="D76" t="s">
+        <v>113</v>
       </c>
       <c r="E76" t="s">
-        <v>112</v>
-      </c>
-      <c r="I76" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="H76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -2555,17 +2745,17 @@
       <c r="C77" t="s">
         <v>71</v>
       </c>
-      <c r="D77">
-        <v>2.9</v>
+      <c r="D77" t="s">
+        <v>114</v>
       </c>
       <c r="E77" t="s">
-        <v>113</v>
-      </c>
-      <c r="I77" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="H77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -2575,20 +2765,20 @@
       <c r="C78" t="s">
         <v>12</v>
       </c>
-      <c r="D78">
-        <v>2.74</v>
+      <c r="D78" t="s">
+        <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="F78" t="s">
-        <v>144</v>
-      </c>
-      <c r="I78" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="H78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -2598,20 +2788,20 @@
       <c r="C79" t="s">
         <v>12</v>
       </c>
-      <c r="D79">
-        <v>2.74</v>
+      <c r="D79" t="s">
+        <v>115</v>
       </c>
       <c r="E79" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
-      </c>
-      <c r="I79" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="H79" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -2621,17 +2811,17 @@
       <c r="C80" t="s">
         <v>72</v>
       </c>
-      <c r="D80">
-        <v>2.7</v>
+      <c r="D80" t="s">
+        <v>98</v>
       </c>
       <c r="E80" t="s">
-        <v>115</v>
-      </c>
-      <c r="I80" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="H80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -2641,17 +2831,17 @@
       <c r="C81" t="s">
         <v>73</v>
       </c>
-      <c r="D81">
-        <v>2.3</v>
+      <c r="D81" t="s">
+        <v>116</v>
       </c>
       <c r="E81" t="s">
-        <v>116</v>
-      </c>
-      <c r="I81" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="H81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -2661,17 +2851,17 @@
       <c r="C82" t="s">
         <v>74</v>
       </c>
-      <c r="D82">
-        <v>2.1</v>
+      <c r="D82" t="s">
+        <v>117</v>
       </c>
       <c r="E82" t="s">
-        <v>117</v>
-      </c>
-      <c r="I82" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="H82" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -2681,59 +2871,59 @@
       <c r="C83" t="s">
         <v>75</v>
       </c>
-      <c r="D83">
-        <v>1.5</v>
+      <c r="D83" t="s">
+        <v>118</v>
       </c>
       <c r="E83" t="s">
-        <v>118</v>
-      </c>
-      <c r="I83" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="H83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="B84" t="s">
         <v>43</v>
       </c>
-      <c r="D84">
-        <v>1.3</v>
+      <c r="D84" t="s">
+        <v>119</v>
       </c>
       <c r="E84" t="s">
-        <v>119</v>
-      </c>
-      <c r="I84" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="D85">
-        <v>0.26</v>
+        <v>172</v>
+      </c>
+      <c r="H84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="D85" t="s">
+        <v>120</v>
       </c>
       <c r="E85" t="s">
-        <v>120</v>
+        <v>173</v>
+      </c>
+      <c r="G85" t="s">
+        <v>208</v>
       </c>
       <c r="H85" t="s">
-        <v>156</v>
-      </c>
-      <c r="I85" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="D86">
-        <v>0</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="D86" t="s">
+        <v>91</v>
       </c>
       <c r="E86" t="s">
-        <v>121</v>
+        <v>174</v>
+      </c>
+      <c r="G86" t="s">
+        <v>209</v>
       </c>
       <c r="H86" t="s">
-        <v>157</v>
-      </c>
-      <c r="I86" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -2743,17 +2933,17 @@
       <c r="C87" t="s">
         <v>71</v>
       </c>
-      <c r="D87">
-        <v>3.5</v>
+      <c r="D87" t="s">
+        <v>111</v>
       </c>
       <c r="E87" t="s">
-        <v>110</v>
-      </c>
-      <c r="I87" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="H87" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -2763,20 +2953,20 @@
       <c r="C88" t="s">
         <v>12</v>
       </c>
-      <c r="D88">
-        <v>3.25</v>
+      <c r="D88" t="s">
+        <v>112</v>
       </c>
       <c r="E88" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="F88" t="s">
-        <v>149</v>
-      </c>
-      <c r="I88" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>202</v>
+      </c>
+      <c r="H88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -2786,17 +2976,17 @@
       <c r="C89" t="s">
         <v>71</v>
       </c>
-      <c r="D89">
-        <v>3.1</v>
+      <c r="D89" t="s">
+        <v>113</v>
       </c>
       <c r="E89" t="s">
-        <v>112</v>
-      </c>
-      <c r="I89" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="H89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -2806,17 +2996,17 @@
       <c r="C90" t="s">
         <v>71</v>
       </c>
-      <c r="D90">
-        <v>2.9</v>
+      <c r="D90" t="s">
+        <v>114</v>
       </c>
       <c r="E90" t="s">
-        <v>113</v>
-      </c>
-      <c r="I90" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>166</v>
+      </c>
+      <c r="H90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -2826,20 +3016,20 @@
       <c r="C91" t="s">
         <v>12</v>
       </c>
-      <c r="D91">
-        <v>2.74</v>
+      <c r="D91" t="s">
+        <v>115</v>
       </c>
       <c r="E91" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>144</v>
-      </c>
-      <c r="I91" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="H91" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -2849,20 +3039,20 @@
       <c r="C92" t="s">
         <v>12</v>
       </c>
-      <c r="D92">
-        <v>2.74</v>
+      <c r="D92" t="s">
+        <v>115</v>
       </c>
       <c r="E92" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="F92" t="s">
-        <v>150</v>
-      </c>
-      <c r="I92" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="H92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -2872,17 +3062,17 @@
       <c r="C93" t="s">
         <v>72</v>
       </c>
-      <c r="D93">
-        <v>2.7</v>
+      <c r="D93" t="s">
+        <v>98</v>
       </c>
       <c r="E93" t="s">
-        <v>115</v>
-      </c>
-      <c r="I93" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>168</v>
+      </c>
+      <c r="H93" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -2892,17 +3082,17 @@
       <c r="C94" t="s">
         <v>73</v>
       </c>
-      <c r="D94">
-        <v>2.3</v>
+      <c r="D94" t="s">
+        <v>116</v>
       </c>
       <c r="E94" t="s">
-        <v>116</v>
-      </c>
-      <c r="I94" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="H94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -2912,17 +3102,17 @@
       <c r="C95" t="s">
         <v>74</v>
       </c>
-      <c r="D95">
-        <v>2.1</v>
+      <c r="D95" t="s">
+        <v>117</v>
       </c>
       <c r="E95" t="s">
-        <v>117</v>
-      </c>
-      <c r="I95" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="H95" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>27</v>
       </c>
@@ -2932,59 +3122,59 @@
       <c r="C96" t="s">
         <v>75</v>
       </c>
-      <c r="D96">
-        <v>1.5</v>
+      <c r="D96" t="s">
+        <v>118</v>
       </c>
       <c r="E96" t="s">
-        <v>118</v>
-      </c>
-      <c r="I96" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="H96" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="B97" t="s">
         <v>43</v>
       </c>
-      <c r="D97">
-        <v>1.3</v>
+      <c r="D97" t="s">
+        <v>119</v>
       </c>
       <c r="E97" t="s">
-        <v>119</v>
-      </c>
-      <c r="I97" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="D98">
-        <v>0.26</v>
+        <v>172</v>
+      </c>
+      <c r="H97" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="D98" t="s">
+        <v>120</v>
       </c>
       <c r="E98" t="s">
-        <v>120</v>
+        <v>173</v>
+      </c>
+      <c r="G98" t="s">
+        <v>208</v>
       </c>
       <c r="H98" t="s">
-        <v>156</v>
-      </c>
-      <c r="I98" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="D99">
-        <v>0</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="D99" t="s">
+        <v>91</v>
       </c>
       <c r="E99" t="s">
-        <v>121</v>
+        <v>174</v>
+      </c>
+      <c r="G99" t="s">
+        <v>209</v>
       </c>
       <c r="H99" t="s">
-        <v>157</v>
-      </c>
-      <c r="I99" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>28</v>
       </c>
@@ -2994,57 +3184,57 @@
       <c r="C100" t="s">
         <v>76</v>
       </c>
-      <c r="D100">
-        <v>2.45</v>
+      <c r="D100" t="s">
+        <v>121</v>
       </c>
       <c r="E100" t="s">
+        <v>175</v>
+      </c>
+      <c r="H100" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
         <v>122</v>
       </c>
-      <c r="I100" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101">
-        <v>2.42</v>
-      </c>
       <c r="E101" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="F101" t="s">
-        <v>142</v>
-      </c>
-      <c r="I101" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="H101" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>29</v>
       </c>
       <c r="B102" t="s">
         <v>55</v>
       </c>
-      <c r="D102">
-        <v>2.2</v>
+      <c r="D102" t="s">
+        <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>124</v>
-      </c>
-      <c r="I102" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="H102" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -3054,83 +3244,83 @@
       <c r="C103" t="s">
         <v>77</v>
       </c>
-      <c r="D103">
-        <v>2.11</v>
+      <c r="D103" t="s">
+        <v>123</v>
       </c>
       <c r="E103" t="s">
+        <v>178</v>
+      </c>
+      <c r="H103" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" t="s">
+        <v>124</v>
+      </c>
+      <c r="E104" t="s">
+        <v>179</v>
+      </c>
+      <c r="F104" t="s">
+        <v>196</v>
+      </c>
+      <c r="H104" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
         <v>125</v>
       </c>
-      <c r="I103" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" t="s">
-        <v>12</v>
-      </c>
-      <c r="B104" t="s">
-        <v>12</v>
-      </c>
-      <c r="C104" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104">
-        <v>2.08</v>
-      </c>
-      <c r="E104" t="s">
-        <v>126</v>
-      </c>
-      <c r="F104" t="s">
-        <v>143</v>
-      </c>
-      <c r="I104" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" t="s">
-        <v>12</v>
-      </c>
-      <c r="B105" t="s">
-        <v>12</v>
-      </c>
-      <c r="C105" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105">
-        <v>1.78</v>
-      </c>
       <c r="E105" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="F105" t="s">
-        <v>151</v>
-      </c>
-      <c r="I105" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="H105" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>31</v>
       </c>
       <c r="B106" t="s">
         <v>57</v>
       </c>
-      <c r="D106">
-        <v>1.9</v>
+      <c r="D106" t="s">
+        <v>126</v>
       </c>
       <c r="E106" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="G106" t="s">
-        <v>155</v>
-      </c>
-      <c r="I106" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="H106" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>32</v>
       </c>
@@ -3140,34 +3330,34 @@
       <c r="C107" t="s">
         <v>78</v>
       </c>
-      <c r="D107">
-        <v>1.66</v>
+      <c r="D107" t="s">
+        <v>127</v>
       </c>
       <c r="E107" t="s">
-        <v>129</v>
-      </c>
-      <c r="I107" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>182</v>
+      </c>
+      <c r="H107" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>33</v>
       </c>
       <c r="B108" t="s">
         <v>59</v>
       </c>
-      <c r="D108">
-        <v>1.45</v>
+      <c r="D108" t="s">
+        <v>128</v>
       </c>
       <c r="E108" t="s">
-        <v>130</v>
-      </c>
-      <c r="I108" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="H108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -3177,59 +3367,59 @@
       <c r="C109" t="s">
         <v>68</v>
       </c>
-      <c r="D109">
-        <v>1.2</v>
+      <c r="D109" t="s">
+        <v>129</v>
       </c>
       <c r="E109" t="s">
-        <v>131</v>
-      </c>
-      <c r="I109" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="H109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="B110" t="s">
         <v>43</v>
       </c>
-      <c r="D110">
-        <v>1</v>
+      <c r="D110" t="s">
+        <v>130</v>
       </c>
       <c r="E110" t="s">
-        <v>132</v>
-      </c>
-      <c r="I110" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="D111">
-        <v>0.39</v>
+        <v>185</v>
+      </c>
+      <c r="H110" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="D111" t="s">
+        <v>131</v>
       </c>
       <c r="E111" t="s">
-        <v>133</v>
+        <v>186</v>
+      </c>
+      <c r="G111" t="s">
+        <v>208</v>
       </c>
       <c r="H111" t="s">
-        <v>156</v>
-      </c>
-      <c r="I111" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="D112">
-        <v>0</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="D112" t="s">
+        <v>91</v>
       </c>
       <c r="E112" t="s">
-        <v>134</v>
+        <v>187</v>
+      </c>
+      <c r="G112" t="s">
+        <v>209</v>
       </c>
       <c r="H112" t="s">
-        <v>157</v>
-      </c>
-      <c r="I112" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>28</v>
       </c>
@@ -3239,57 +3429,57 @@
       <c r="C113" t="s">
         <v>76</v>
       </c>
-      <c r="D113">
-        <v>2.45</v>
+      <c r="D113" t="s">
+        <v>121</v>
       </c>
       <c r="E113" t="s">
+        <v>175</v>
+      </c>
+      <c r="H113" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
         <v>122</v>
       </c>
-      <c r="I113" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" t="s">
-        <v>12</v>
-      </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114">
-        <v>2.42</v>
-      </c>
       <c r="E114" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="F114" t="s">
-        <v>142</v>
-      </c>
-      <c r="I114" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="H114" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>29</v>
       </c>
       <c r="B115" t="s">
         <v>55</v>
       </c>
-      <c r="D115">
-        <v>2.2</v>
+      <c r="D115" t="s">
+        <v>101</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
-      </c>
-      <c r="I115" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="H115" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -3299,83 +3489,83 @@
       <c r="C116" t="s">
         <v>77</v>
       </c>
-      <c r="D116">
-        <v>2.11</v>
+      <c r="D116" t="s">
+        <v>123</v>
       </c>
       <c r="E116" t="s">
+        <v>178</v>
+      </c>
+      <c r="H116" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>124</v>
+      </c>
+      <c r="E117" t="s">
+        <v>179</v>
+      </c>
+      <c r="F117" t="s">
+        <v>196</v>
+      </c>
+      <c r="H117" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
         <v>125</v>
       </c>
-      <c r="I116" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" t="s">
-        <v>12</v>
-      </c>
-      <c r="B117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117">
-        <v>2.08</v>
-      </c>
-      <c r="E117" t="s">
-        <v>126</v>
-      </c>
-      <c r="F117" t="s">
-        <v>143</v>
-      </c>
-      <c r="I117" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" t="s">
-        <v>12</v>
-      </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118">
-        <v>1.78</v>
-      </c>
       <c r="E118" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="F118" t="s">
-        <v>151</v>
-      </c>
-      <c r="I118" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>204</v>
+      </c>
+      <c r="H118" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>31</v>
       </c>
       <c r="B119" t="s">
         <v>57</v>
       </c>
-      <c r="D119">
-        <v>1.9</v>
+      <c r="D119" t="s">
+        <v>126</v>
       </c>
       <c r="E119" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="G119" t="s">
-        <v>155</v>
-      </c>
-      <c r="I119" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>210</v>
+      </c>
+      <c r="H119" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>32</v>
       </c>
@@ -3385,34 +3575,34 @@
       <c r="C120" t="s">
         <v>78</v>
       </c>
-      <c r="D120">
-        <v>1.66</v>
+      <c r="D120" t="s">
+        <v>127</v>
       </c>
       <c r="E120" t="s">
-        <v>129</v>
-      </c>
-      <c r="I120" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>182</v>
+      </c>
+      <c r="H120" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>33</v>
       </c>
       <c r="B121" t="s">
         <v>59</v>
       </c>
-      <c r="D121">
-        <v>1.45</v>
+      <c r="D121" t="s">
+        <v>128</v>
       </c>
       <c r="E121" t="s">
-        <v>130</v>
-      </c>
-      <c r="I121" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="H121" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>34</v>
       </c>
@@ -3422,56 +3612,56 @@
       <c r="C122" t="s">
         <v>68</v>
       </c>
-      <c r="D122">
-        <v>1.2</v>
+      <c r="D122" t="s">
+        <v>129</v>
       </c>
       <c r="E122" t="s">
-        <v>131</v>
-      </c>
-      <c r="I122" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="H122" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="B123" t="s">
         <v>43</v>
       </c>
-      <c r="D123">
-        <v>1</v>
+      <c r="D123" t="s">
+        <v>130</v>
       </c>
       <c r="E123" t="s">
-        <v>132</v>
-      </c>
-      <c r="I123" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="D124">
-        <v>0.39</v>
+        <v>185</v>
+      </c>
+      <c r="H123" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="D124" t="s">
+        <v>131</v>
       </c>
       <c r="E124" t="s">
-        <v>133</v>
+        <v>186</v>
+      </c>
+      <c r="G124" t="s">
+        <v>208</v>
       </c>
       <c r="H124" t="s">
-        <v>156</v>
-      </c>
-      <c r="I124" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="D125">
-        <v>0</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="D125" t="s">
+        <v>91</v>
       </c>
       <c r="E125" t="s">
-        <v>134</v>
+        <v>187</v>
+      </c>
+      <c r="G125" t="s">
+        <v>209</v>
       </c>
       <c r="H125" t="s">
-        <v>157</v>
-      </c>
-      <c r="I125" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
